--- a/src/predicciones/holt_winters/producto_146.xlsx
+++ b/src/predicciones/holt_winters/producto_146.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -377,13 +386,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,69 +404,1422 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>44931</v>
       </c>
       <c r="B2">
-        <v>0.9517072693983714</v>
+        <v>1.003377764320085</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>44935</v>
       </c>
       <c r="B3">
-        <v>0.9575053953165249</v>
+        <v>2.003359411684505</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>44938</v>
       </c>
       <c r="B4">
-        <v>1.003499551795776</v>
+        <v>1.003186642965466</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>44940</v>
       </c>
       <c r="B5">
-        <v>1.055379281309665</v>
+        <v>1.003530713515375</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>44942</v>
       </c>
       <c r="B6">
-        <v>2.123381596546212</v>
+        <v>2.003513789477417</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="2">
+        <v>44943</v>
       </c>
       <c r="B7">
-        <v>2.140242404622281</v>
+        <v>1.003686373007898</v>
       </c>
       <c r="C7">
         <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>44952</v>
+      </c>
+      <c r="B8">
+        <v>1.006533761272246</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>44955</v>
+      </c>
+      <c r="B9">
+        <v>1.006876289541574</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>44958</v>
+      </c>
+      <c r="B10">
+        <v>2.006857936905994</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>44961</v>
+      </c>
+      <c r="B11">
+        <v>1.006685168186956</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>44963</v>
+      </c>
+      <c r="B12">
+        <v>1.007029238736865</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
+        <v>44964</v>
+      </c>
+      <c r="B13">
+        <v>2.007012314698907</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>44968</v>
+      </c>
+      <c r="B14">
+        <v>1.007184898229387</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>44969</v>
+      </c>
+      <c r="B15">
+        <v>1.010032286493735</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>44970</v>
+      </c>
+      <c r="B16">
+        <v>1.010374814763064</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
+        <v>44973</v>
+      </c>
+      <c r="B17">
+        <v>2.010356462127483</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
+        <v>44975</v>
+      </c>
+      <c r="B18">
+        <v>1.010183693408445</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
+        <v>44977</v>
+      </c>
+      <c r="B19">
+        <v>1.010527763958354</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
+        <v>44978</v>
+      </c>
+      <c r="B20">
+        <v>2.010510839920396</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
+        <v>44981</v>
+      </c>
+      <c r="B21">
+        <v>1.010683423450876</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
+        <v>44985</v>
+      </c>
+      <c r="B22">
+        <v>1.013530811715224</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
+        <v>44989</v>
+      </c>
+      <c r="B23">
+        <v>1.013873339984553</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
+        <v>45003</v>
+      </c>
+      <c r="B24">
+        <v>2.013854987348973</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
+        <v>45004</v>
+      </c>
+      <c r="B25">
+        <v>1.013682218629934</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
+        <v>45005</v>
+      </c>
+      <c r="B26">
+        <v>1.014026289179843</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
+        <v>45009</v>
+      </c>
+      <c r="B27">
+        <v>2.014009365141885</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
+        <v>45013</v>
+      </c>
+      <c r="B28">
+        <v>1.014181948672366</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
+        <v>45014</v>
+      </c>
+      <c r="B29">
+        <v>1.017029336936714</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
+        <v>45016</v>
+      </c>
+      <c r="B30">
+        <v>1.017371865206042</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
+        <v>45025</v>
+      </c>
+      <c r="B31">
+        <v>2.017353512570462</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
+        <v>45027</v>
+      </c>
+      <c r="B32">
+        <v>1.017180743851423</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>45031</v>
+      </c>
+      <c r="B33">
+        <v>1.017524814401332</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>45032</v>
+      </c>
+      <c r="B34">
+        <v>2.017507890363375</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
+        <v>45036</v>
+      </c>
+      <c r="B35">
+        <v>1.017680473893855</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>45043</v>
+      </c>
+      <c r="B36">
+        <v>1.020527862158203</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
+        <v>45048</v>
+      </c>
+      <c r="B37">
+        <v>1.020870390427532</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>45055</v>
+      </c>
+      <c r="B38">
+        <v>2.020852037791951</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
+        <v>45060</v>
+      </c>
+      <c r="B39">
+        <v>1.020679269072913</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
+        <v>45062</v>
+      </c>
+      <c r="B40">
+        <v>1.021023339622822</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
+        <v>45069</v>
+      </c>
+      <c r="B41">
+        <v>2.021006415584864</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
+        <v>45071</v>
+      </c>
+      <c r="B42">
+        <v>1.021178999115345</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
+        <v>45072</v>
+      </c>
+      <c r="B43">
+        <v>1.024026387379692</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
+        <v>45077</v>
+      </c>
+      <c r="B44">
+        <v>1.024368915649021</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2">
+        <v>45080</v>
+      </c>
+      <c r="B45">
+        <v>2.024350563013441</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2">
+        <v>45083</v>
+      </c>
+      <c r="B46">
+        <v>1.024177794294402</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2">
+        <v>45085</v>
+      </c>
+      <c r="B47">
+        <v>1.024521864844311</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2">
+        <v>45086</v>
+      </c>
+      <c r="B48">
+        <v>2.024504940806353</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2">
+        <v>45088</v>
+      </c>
+      <c r="B49">
+        <v>1.024677524336834</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2">
+        <v>45092</v>
+      </c>
+      <c r="B50">
+        <v>1.027524912601182</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2">
+        <v>45095</v>
+      </c>
+      <c r="B51">
+        <v>1.02786744087051</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2">
+        <v>45096</v>
+      </c>
+      <c r="B52">
+        <v>2.02784908823493</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2">
+        <v>45097</v>
+      </c>
+      <c r="B53">
+        <v>1.027676319515892</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2">
+        <v>45101</v>
+      </c>
+      <c r="B54">
+        <v>1.028020390065801</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2">
+        <v>45109</v>
+      </c>
+      <c r="B55">
+        <v>2.028003466027843</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2">
+        <v>45112</v>
+      </c>
+      <c r="B56">
+        <v>1.028176049558323</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2">
+        <v>45118</v>
+      </c>
+      <c r="B57">
+        <v>1.031023437822671</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2">
+        <v>45121</v>
+      </c>
+      <c r="B58">
+        <v>1.031365966092</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2">
+        <v>45122</v>
+      </c>
+      <c r="B59">
+        <v>2.03134761345642</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2">
+        <v>45126</v>
+      </c>
+      <c r="B60">
+        <v>1.031174844737381</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2">
+        <v>45128</v>
+      </c>
+      <c r="B61">
+        <v>1.03151891528729</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2">
+        <v>45133</v>
+      </c>
+      <c r="B62">
+        <v>2.031501991249332</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2">
+        <v>45142</v>
+      </c>
+      <c r="B63">
+        <v>1.031674574779812</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="2">
+        <v>45144</v>
+      </c>
+      <c r="B64">
+        <v>1.03452196304416</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="2">
+        <v>45150</v>
+      </c>
+      <c r="B65">
+        <v>1.034864491313489</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="2">
+        <v>45154</v>
+      </c>
+      <c r="B66">
+        <v>2.034846138677909</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="2">
+        <v>45155</v>
+      </c>
+      <c r="B67">
+        <v>1.03467336995887</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="2">
+        <v>45163</v>
+      </c>
+      <c r="B68">
+        <v>1.03501744050878</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="2">
+        <v>45167</v>
+      </c>
+      <c r="B69">
+        <v>2.035000516470821</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="2">
+        <v>45172</v>
+      </c>
+      <c r="B70">
+        <v>1.035173100001302</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="2">
+        <v>45174</v>
+      </c>
+      <c r="B71">
+        <v>1.03802048826565</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="2">
+        <v>45177</v>
+      </c>
+      <c r="B72">
+        <v>1.038363016534978</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="2">
+        <v>45178</v>
+      </c>
+      <c r="B73">
+        <v>2.038344663899398</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2">
+        <v>45179</v>
+      </c>
+      <c r="B74">
+        <v>1.03817189518036</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B75">
+        <v>1.038515965730268</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="2">
+        <v>45181</v>
+      </c>
+      <c r="B76">
+        <v>2.038499041692311</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2">
+        <v>45183</v>
+      </c>
+      <c r="B77">
+        <v>1.038671625222791</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="2">
+        <v>45184</v>
+      </c>
+      <c r="B78">
+        <v>1.041519013487139</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="2">
+        <v>45191</v>
+      </c>
+      <c r="B79">
+        <v>1.041861541756468</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="2">
+        <v>45192</v>
+      </c>
+      <c r="B80">
+        <v>2.041843189120887</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="2">
+        <v>45193</v>
+      </c>
+      <c r="B81">
+        <v>1.041670420401849</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="2">
+        <v>45196</v>
+      </c>
+      <c r="B82">
+        <v>1.042014490951758</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="2">
+        <v>45197</v>
+      </c>
+      <c r="B83">
+        <v>2.0419975669138</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="2">
+        <v>45200</v>
+      </c>
+      <c r="B84">
+        <v>1.042170150444281</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="2">
+        <v>45203</v>
+      </c>
+      <c r="B85">
+        <v>1.045017538708628</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="2">
+        <v>45205</v>
+      </c>
+      <c r="B86">
+        <v>1.045360066977957</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="2">
+        <v>45212</v>
+      </c>
+      <c r="B87">
+        <v>2.045341714342377</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="2">
+        <v>45216</v>
+      </c>
+      <c r="B88">
+        <v>1.045168945623338</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="2">
+        <v>45217</v>
+      </c>
+      <c r="B89">
+        <v>1.045513016173247</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="2">
+        <v>45221</v>
+      </c>
+      <c r="B90">
+        <v>2.045496092135289</v>
+      </c>
+      <c r="C90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2">
+        <v>45224</v>
+      </c>
+      <c r="B91">
+        <v>1.04566867566577</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2">
+        <v>45227</v>
+      </c>
+      <c r="B92">
+        <v>1.048516063930118</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2">
+        <v>45234</v>
+      </c>
+      <c r="B93">
+        <v>1.048858592199446</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="2">
+        <v>45235</v>
+      </c>
+      <c r="B94">
+        <v>2.048840239563866</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="2">
+        <v>45239</v>
+      </c>
+      <c r="B95">
+        <v>1.048667470844828</v>
+      </c>
+      <c r="C95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="2">
+        <v>45241</v>
+      </c>
+      <c r="B96">
+        <v>1.049011541394737</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="2">
+        <v>45242</v>
+      </c>
+      <c r="B97">
+        <v>2.048994617356779</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="2">
+        <v>45243</v>
+      </c>
+      <c r="B98">
+        <v>1.049167200887259</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="2">
+        <v>45251</v>
+      </c>
+      <c r="B99">
+        <v>1.052014589151607</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="2">
+        <v>45254</v>
+      </c>
+      <c r="B100">
+        <v>1.052357117420936</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="2">
+        <v>45259</v>
+      </c>
+      <c r="B101">
+        <v>2.052338764785356</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="2">
+        <v>45263</v>
+      </c>
+      <c r="B102">
+        <v>1.052165996066317</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="2">
+        <v>45265</v>
+      </c>
+      <c r="B103">
+        <v>1.052510066616226</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="2">
+        <v>45270</v>
+      </c>
+      <c r="B104">
+        <v>2.052493142578268</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="2">
+        <v>45276</v>
+      </c>
+      <c r="B105">
+        <v>1.052665726108748</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="2">
+        <v>45282</v>
+      </c>
+      <c r="B106">
+        <v>1.055513114373096</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="2">
+        <v>45283</v>
+      </c>
+      <c r="B107">
+        <v>1.055855642642425</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="2">
+        <v>45286</v>
+      </c>
+      <c r="B108">
+        <v>2.055837290006845</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="2">
+        <v>45287</v>
+      </c>
+      <c r="B109">
+        <v>1.055664521287806</v>
+      </c>
+      <c r="C109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="2">
+        <v>45288</v>
+      </c>
+      <c r="B110">
+        <v>1.056008591837716</v>
+      </c>
+      <c r="C110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="2">
+        <v>45293</v>
+      </c>
+      <c r="B111">
+        <v>2.055991667799757</v>
+      </c>
+      <c r="C111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="2">
+        <v>45299</v>
+      </c>
+      <c r="B112">
+        <v>1.056164251330238</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="2">
+        <v>45301</v>
+      </c>
+      <c r="B113">
+        <v>1.059011639594586</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="2">
+        <v>45303</v>
+      </c>
+      <c r="B114">
+        <v>1.059354167863914</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="2">
+        <v>45304</v>
+      </c>
+      <c r="B115">
+        <v>2.059335815228335</v>
+      </c>
+      <c r="C115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="2">
+        <v>45306</v>
+      </c>
+      <c r="B116">
+        <v>1.059163046509296</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="2">
+        <v>45309</v>
+      </c>
+      <c r="B117">
+        <v>1.059507117059205</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="2">
+        <v>45311</v>
+      </c>
+      <c r="B118">
+        <v>2.059490193021247</v>
+      </c>
+      <c r="C118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="2">
+        <v>45312</v>
+      </c>
+      <c r="B119">
+        <v>1.059662776551727</v>
+      </c>
+      <c r="C119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="2">
+        <v>45316</v>
+      </c>
+      <c r="B120">
+        <v>1.062510164816075</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="2">
+        <v>45320</v>
+      </c>
+      <c r="B121">
+        <v>1.062852693085404</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="2">
+        <v>45322</v>
+      </c>
+      <c r="B122">
+        <v>2.062834340449824</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B123">
+        <v>1.062661571730785</v>
+      </c>
+      <c r="C123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="2">
+        <v>45330</v>
+      </c>
+      <c r="B124">
+        <v>1.063005642280694</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="2">
+        <v>45331</v>
+      </c>
+      <c r="B125">
+        <v>2.062988718242736</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="2">
+        <v>45338</v>
+      </c>
+      <c r="B126">
+        <v>1.063161301773217</v>
+      </c>
+      <c r="C126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="2">
+        <v>45340</v>
+      </c>
+      <c r="B127">
+        <v>1.066008690037564</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B128">
+        <v>1.066351218306893</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="2">
+        <v>45342</v>
+      </c>
+      <c r="B129">
+        <v>2.066332865671313</v>
+      </c>
+      <c r="C129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="2">
+        <v>45346</v>
+      </c>
+      <c r="B130">
+        <v>1.066160096952274</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
